--- a/Group Contribution.xlsx
+++ b/Group Contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiroh\Desktop\2048\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95595CE6-AD10-4424-B80B-6B313225AA7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA96C8F-ED45-4812-A17A-23AF1BA7997B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{894AB7D6-2077-4295-9151-0CE026D3FB07}"/>
   </bookViews>
@@ -172,6 +172,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -179,15 +188,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,7 +507,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,145 +516,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>30</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>40</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5">
-        <v>35</v>
-      </c>
-      <c r="F4" s="5">
-        <v>25</v>
+      <c r="D4" s="2">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
         <v>40</v>
       </c>
-      <c r="D5" s="5">
-        <v>35</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
-        <v>25</v>
+      <c r="F5" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="2">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
-        <v>50</v>
+      <c r="F6" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>90</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3">
         <f>SUM(C3:C7) / SUM(C3:F7)*100</f>
-        <v>38</v>
-      </c>
-      <c r="D8" s="7">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3">
         <f>SUM(D3:D7)/SUM(C3:F7)*100</f>
-        <v>22</v>
-      </c>
-      <c r="E8" s="7">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
         <f>SUM(E3:E7)/SUM(C3:F7)*100</f>
-        <v>15</v>
-      </c>
-      <c r="F8" s="7">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3">
         <f>SUM(F3:F7)/SUM(C3:F7)*100</f>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Group Contribution.xlsx
+++ b/Group Contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiroh\Desktop\2048\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA96C8F-ED45-4812-A17A-23AF1BA7997B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295B5FD9-66C4-48F0-947E-90EF32FAF5F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{894AB7D6-2077-4295-9151-0CE026D3FB07}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>20</v>
       </c>
       <c r="E4" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2">
         <v>20</v>
@@ -642,7 +642,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="3">
         <f>SUM(C3:C7) / SUM(C3:F7)*100</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3">
         <f>SUM(D3:D7)/SUM(C3:F7)*100</f>
@@ -650,7 +650,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUM(E3:E7)/SUM(C3:F7)*100</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3">
         <f>SUM(F3:F7)/SUM(C3:F7)*100</f>
